--- a/biology/Zoologie/Frégate_superbe/Frégate_superbe.xlsx
+++ b/biology/Zoologie/Frégate_superbe/Frégate_superbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_superbe</t>
+          <t>Frégate_superbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fregata magnificens
-La Frégate superbe (Fregata magnificens Mathews, 1914) est une espèce d'oiseau de mer appartenant à la famille des Fregatidae. Elle est aussi appelée macari ou frégate aux Antilles[1].
+La Frégate superbe (Fregata magnificens Mathews, 1914) est une espèce d'oiseau de mer appartenant à la famille des Fregatidae. Elle est aussi appelée macari ou frégate aux Antilles.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_superbe</t>
+          <t>Frégate_superbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une frégate de grande taille (en moyenne 91 cm pour le mâle et 111 cm pour la femelle pour une envergure d'environ 2 m), reconnaissable par ses ailes longues et effilées, son bec long et crochu et sa queue fourchue.
 Son plumage non étanche ne lui permet pas de plonger ni de nager, elle serait alors prise au piège.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_superbe</t>
+          <t>Frégate_superbe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente tout le bassin Caraïbe (Mer des Caraïbes et Golfe du Mexique), la côte Atlantique sud (du Venezuela à l'Uruguay), Pacifique est (de l'extrême sud de la Californie au Pérou et les îles du Cap vert et une toute petite partie de l'Afrique occidentale (Côte Mauritanienne et Sénégalaise).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_superbe</t>
+          <t>Frégate_superbe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un puissant chasseur qui se nourrit essentiellement de poissons et de petites tortues. Néanmoins, il lui arrive de manger des calmars.
-En Guyane, il suit les crevettiers pour attraper les rebuts de pêche jetés par-dessus bord[2].
+En Guyane, il suit les crevettiers pour attraper les rebuts de pêche jetés par-dessus bord.
 Sa technique de chasse le pousse quelquefois à harceler d'autres oiseaux de mer, jusqu'à ce  qu'ils soient contraints de régurgiter leur proie et se l'approprier ensuite.
 </t>
         </is>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_superbe</t>
+          <t>Frégate_superbe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Situation de l'espèce en Guyane</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Présentes toute l'année en Guyane, sur l'Île du Grand Connétable, les frégates superbes se dispersent en mer depuis le littoral et les estuaires jusqu'à 30 à 40 km des côtes (100 km au maximum) où on les retrouve principalement dans le sillage des crevettiers.
 Près de 500 couples nidifient, un seul œuf est pondu au sol sur un nid sommaire constitué de branchettes.
